--- a/WebPage/Common/RptTemplet/0506Report.xlsx
+++ b/WebPage/Common/RptTemplet/0506Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EOS_CardFlow\WebPage\Common\RptTemplet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA78202B-5E96-4ABF-A608-BA76878CB08A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A46F5D6-4CFB-4FE9-831F-8846E484F4EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="-14295" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -155,13 +155,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -451,29 +452,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -488,41 +490,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34994045-C33C-4C11-BE47-C0783559031D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="1" max="2" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
